--- a/data/original/Root_dmg_larvae.xlsx
+++ b/data/original/Root_dmg_larvae.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://irtacat-my.sharepoint.com/personal/alejandro_munoz_irta_cat/Documents/Documentos/Exclusion-Lisso-Analysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://irtacat-my.sharepoint.com/personal/alejandro_munoz_irta_cat/Documents/Documentos/Exclusion-Lisso-Analysis/data/original/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{F71F6BFE-3DDB-4150-8984-A5A1123CF78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2F52B71-D448-423E-9931-3ED858479E8C}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{F71F6BFE-3DDB-4150-8984-A5A1123CF78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93A76B9E-56CF-4892-8E43-3E3B83823523}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7515" windowWidth="29040" windowHeight="15720" xr2:uid="{A177F312-885D-4C3E-B7CD-5AC6AA8F4DA1}"/>
   </bookViews>
@@ -78,6 +78,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,15 +119,30 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -146,20 +164,6 @@
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -268,17 +272,21 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25E7EFB3-A5C8-4981-9AD2-5D1D3E54427A}" name="Tabla53" displayName="Tabla53" ref="A1:G201" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G201" xr:uid="{7F76055B-7275-47D3-8C12-1235C3A8AA54}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{9084F76A-CA7B-4D4E-A144-D01E7D1CD34C}" name="Date" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{E7DCCA9E-3191-45E0-8D8F-56061E0E9B19}" name="Field" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{2F469E28-07AF-4B6A-8512-6AB30EF1C64F}" name="Treatment" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{0B39AAA9-C99A-4194-B0DC-A6BC2F9F8475}" name="Repeat" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{72B1AF0F-F584-459D-80E7-A20A2B4C7F70}" name="Root_weight" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{C1CEC9D0-1F0F-4DD5-B2B4-273BBE8A147F}" name="N_larvae" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{63F047AF-C1D5-4105-A256-C8ECC2D15B79}" name="Observations" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9084F76A-CA7B-4D4E-A144-D01E7D1CD34C}" name="Date" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{E7DCCA9E-3191-45E0-8D8F-56061E0E9B19}" name="Field" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{2F469E28-07AF-4B6A-8512-6AB30EF1C64F}" name="Treatment" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{0B39AAA9-C99A-4194-B0DC-A6BC2F9F8475}" name="Repeat" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{72B1AF0F-F584-459D-80E7-A20A2B4C7F70}" name="Root_weight" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{C1CEC9D0-1F0F-4DD5-B2B4-273BBE8A147F}" name="N_larvae" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{63F047AF-C1D5-4105-A256-C8ECC2D15B79}" name="Observations" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -583,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225BA0C1-7E32-4030-86B3-127CFBE0CBA7}">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="F133" sqref="F133"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -622,7 +630,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>45827</v>
       </c>
       <c r="B2" s="1">
@@ -640,10 +648,10 @@
       <c r="F2" s="1">
         <v>7</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>45827</v>
       </c>
       <c r="B3" s="1">
@@ -664,7 +672,7 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>45827</v>
       </c>
       <c r="B4" s="1">
@@ -685,7 +693,7 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>45827</v>
       </c>
       <c r="B5" s="1">
@@ -706,7 +714,7 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>45827</v>
       </c>
       <c r="B6" s="1">
@@ -727,7 +735,7 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>45827</v>
       </c>
       <c r="B7" s="1">
@@ -748,7 +756,7 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>45827</v>
       </c>
       <c r="B8" s="1">
@@ -769,7 +777,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>45827</v>
       </c>
       <c r="B9" s="1">
@@ -790,7 +798,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>45827</v>
       </c>
       <c r="B10" s="1">
@@ -811,7 +819,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>45827</v>
       </c>
       <c r="B11" s="1">
@@ -832,7 +840,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>45827</v>
       </c>
       <c r="B12" s="1">
@@ -853,7 +861,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>45827</v>
       </c>
       <c r="B13" s="1">
@@ -874,7 +882,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>45827</v>
       </c>
       <c r="B14" s="1">
@@ -895,7 +903,7 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>45827</v>
       </c>
       <c r="B15" s="1">
@@ -916,7 +924,7 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>45827</v>
       </c>
       <c r="B16" s="1">
@@ -937,7 +945,7 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>45827</v>
       </c>
       <c r="B17" s="1">
@@ -958,7 +966,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>45827</v>
       </c>
       <c r="B18" s="1">
@@ -979,7 +987,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>45827</v>
       </c>
       <c r="B19" s="1">
@@ -1000,7 +1008,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>45827</v>
       </c>
       <c r="B20" s="1">
@@ -1021,7 +1029,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>45827</v>
       </c>
       <c r="B21" s="1">
@@ -1042,7 +1050,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>45827</v>
       </c>
       <c r="B22" s="1">
@@ -1063,7 +1071,7 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>45827</v>
       </c>
       <c r="B23" s="1">
@@ -1084,7 +1092,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>45827</v>
       </c>
       <c r="B24" s="1">
@@ -1105,7 +1113,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>45827</v>
       </c>
       <c r="B25" s="1">
@@ -1126,7 +1134,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>45827</v>
       </c>
       <c r="B26" s="1">
@@ -1147,7 +1155,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>45827</v>
       </c>
       <c r="B27" s="1">
@@ -1168,7 +1176,7 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>45827</v>
       </c>
       <c r="B28" s="1">
@@ -1189,7 +1197,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>45827</v>
       </c>
       <c r="B29" s="1">
@@ -1210,7 +1218,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>45827</v>
       </c>
       <c r="B30" s="1">
@@ -1231,7 +1239,7 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>45827</v>
       </c>
       <c r="B31" s="1">
@@ -1252,7 +1260,7 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>45827</v>
       </c>
       <c r="B32" s="1">
@@ -1273,7 +1281,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>45827</v>
       </c>
       <c r="B33" s="1">
@@ -1294,7 +1302,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>45827</v>
       </c>
       <c r="B34" s="1">
@@ -1315,7 +1323,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>45827</v>
       </c>
       <c r="B35" s="1">
@@ -1336,7 +1344,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>45827</v>
       </c>
       <c r="B36" s="1">
@@ -1357,7 +1365,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>45827</v>
       </c>
       <c r="B37" s="1">
@@ -1378,7 +1386,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>45827</v>
       </c>
       <c r="B38" s="1">
@@ -1399,7 +1407,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>45827</v>
       </c>
       <c r="B39" s="1">
@@ -1420,7 +1428,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>45827</v>
       </c>
       <c r="B40" s="1">
@@ -1441,7 +1449,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>45827</v>
       </c>
       <c r="B41" s="1">
@@ -1462,7 +1470,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>45827</v>
       </c>
       <c r="B42" s="1">
@@ -1483,7 +1491,7 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="2">
+      <c r="A43" s="3">
         <v>45827</v>
       </c>
       <c r="B43" s="1">
@@ -1504,7 +1512,7 @@
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <v>45827</v>
       </c>
       <c r="B44" s="1">
@@ -1525,7 +1533,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="2">
+      <c r="A45" s="3">
         <v>45827</v>
       </c>
       <c r="B45" s="1">
@@ -1546,7 +1554,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>45827</v>
       </c>
       <c r="B46" s="1">
@@ -1567,7 +1575,7 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
+      <c r="A47" s="3">
         <v>45827</v>
       </c>
       <c r="B47" s="1">
@@ -1588,7 +1596,7 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <v>45827</v>
       </c>
       <c r="B48" s="1">
@@ -1609,7 +1617,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="2">
+      <c r="A49" s="3">
         <v>45827</v>
       </c>
       <c r="B49" s="1">
@@ -1630,7 +1638,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
+      <c r="A50" s="3">
         <v>45827</v>
       </c>
       <c r="B50" s="1">
@@ -1651,7 +1659,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="2">
+      <c r="A51" s="3">
         <v>45827</v>
       </c>
       <c r="B51" s="1">
@@ -1672,7 +1680,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="2">
+      <c r="A52" s="3">
         <v>45827</v>
       </c>
       <c r="B52" s="1">
@@ -1693,7 +1701,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="2">
+      <c r="A53" s="3">
         <v>45827</v>
       </c>
       <c r="B53" s="1">
@@ -1714,7 +1722,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="2">
+      <c r="A54" s="3">
         <v>45827</v>
       </c>
       <c r="B54" s="1">
@@ -1735,7 +1743,7 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="2">
+      <c r="A55" s="3">
         <v>45827</v>
       </c>
       <c r="B55" s="1">
@@ -1756,7 +1764,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="2">
+      <c r="A56" s="3">
         <v>45827</v>
       </c>
       <c r="B56" s="1">
@@ -1777,7 +1785,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="2">
+      <c r="A57" s="3">
         <v>45827</v>
       </c>
       <c r="B57" s="1">
@@ -1798,7 +1806,7 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="2">
+      <c r="A58" s="3">
         <v>45827</v>
       </c>
       <c r="B58" s="1">
@@ -1819,7 +1827,7 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="2">
+      <c r="A59" s="3">
         <v>45827</v>
       </c>
       <c r="B59" s="1">
@@ -1840,7 +1848,7 @@
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="2">
+      <c r="A60" s="3">
         <v>45827</v>
       </c>
       <c r="B60" s="1">
@@ -1861,7 +1869,7 @@
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="2">
+      <c r="A61" s="3">
         <v>45827</v>
       </c>
       <c r="B61" s="1">
@@ -1882,7 +1890,7 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="2">
+      <c r="A62" s="3">
         <v>45827</v>
       </c>
       <c r="B62" s="1">
@@ -1903,7 +1911,7 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="2">
+      <c r="A63" s="3">
         <v>45827</v>
       </c>
       <c r="B63" s="1">
@@ -1924,7 +1932,7 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="2">
+      <c r="A64" s="3">
         <v>45827</v>
       </c>
       <c r="B64" s="1">
@@ -1945,7 +1953,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="2">
+      <c r="A65" s="3">
         <v>45827</v>
       </c>
       <c r="B65" s="1">
@@ -1966,7 +1974,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="2">
+      <c r="A66" s="3">
         <v>45827</v>
       </c>
       <c r="B66" s="1">
@@ -1987,7 +1995,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="2">
+      <c r="A67" s="3">
         <v>45827</v>
       </c>
       <c r="B67" s="1">
@@ -2008,7 +2016,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="2">
+      <c r="A68" s="3">
         <v>45827</v>
       </c>
       <c r="B68" s="1">
@@ -2029,7 +2037,7 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="2">
+      <c r="A69" s="3">
         <v>45827</v>
       </c>
       <c r="B69" s="1">
@@ -2050,7 +2058,7 @@
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="2">
+      <c r="A70" s="3">
         <v>45827</v>
       </c>
       <c r="B70" s="1">
@@ -2071,7 +2079,7 @@
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="2">
+      <c r="A71" s="3">
         <v>45827</v>
       </c>
       <c r="B71" s="1">
@@ -2092,7 +2100,7 @@
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="2">
+      <c r="A72" s="3">
         <v>45827</v>
       </c>
       <c r="B72" s="1">
@@ -2113,7 +2121,7 @@
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="2">
+      <c r="A73" s="3">
         <v>45827</v>
       </c>
       <c r="B73" s="1">
@@ -2134,7 +2142,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="2">
+      <c r="A74" s="3">
         <v>45827</v>
       </c>
       <c r="B74" s="1">
@@ -2155,7 +2163,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="2">
+      <c r="A75" s="3">
         <v>45827</v>
       </c>
       <c r="B75" s="1">
@@ -2176,7 +2184,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="2">
+      <c r="A76" s="3">
         <v>45827</v>
       </c>
       <c r="B76" s="1">
@@ -2197,7 +2205,7 @@
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="2">
+      <c r="A77" s="3">
         <v>45827</v>
       </c>
       <c r="B77" s="1">
@@ -2218,7 +2226,7 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="2">
+      <c r="A78" s="3">
         <v>45827</v>
       </c>
       <c r="B78" s="1">
@@ -2239,7 +2247,7 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="2">
+      <c r="A79" s="3">
         <v>45827</v>
       </c>
       <c r="B79" s="1">
@@ -2260,7 +2268,7 @@
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="2">
+      <c r="A80" s="3">
         <v>45827</v>
       </c>
       <c r="B80" s="1">
@@ -2281,7 +2289,7 @@
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="2">
+      <c r="A81" s="3">
         <v>45827</v>
       </c>
       <c r="B81" s="1">
@@ -2302,7 +2310,7 @@
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="2">
+      <c r="A82" s="3">
         <v>45827</v>
       </c>
       <c r="B82" s="1">
@@ -2323,7 +2331,7 @@
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="2">
+      <c r="A83" s="3">
         <v>45827</v>
       </c>
       <c r="B83" s="1">
@@ -2344,7 +2352,7 @@
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="2">
+      <c r="A84" s="3">
         <v>45827</v>
       </c>
       <c r="B84" s="1">
@@ -2365,7 +2373,7 @@
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="2">
+      <c r="A85" s="3">
         <v>45827</v>
       </c>
       <c r="B85" s="1">
@@ -2386,7 +2394,7 @@
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="2">
+      <c r="A86" s="3">
         <v>45827</v>
       </c>
       <c r="B86" s="1">
@@ -2407,7 +2415,7 @@
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="2">
+      <c r="A87" s="3">
         <v>45827</v>
       </c>
       <c r="B87" s="1">
@@ -2428,7 +2436,7 @@
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="2">
+      <c r="A88" s="3">
         <v>45827</v>
       </c>
       <c r="B88" s="1">
@@ -2449,7 +2457,7 @@
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="2">
+      <c r="A89" s="3">
         <v>45827</v>
       </c>
       <c r="B89" s="1">
@@ -2470,7 +2478,7 @@
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="2">
+      <c r="A90" s="3">
         <v>45827</v>
       </c>
       <c r="B90" s="1">
@@ -2491,7 +2499,7 @@
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="2">
+      <c r="A91" s="3">
         <v>45827</v>
       </c>
       <c r="B91" s="1">
@@ -2512,7 +2520,7 @@
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="2">
+      <c r="A92" s="3">
         <v>45827</v>
       </c>
       <c r="B92" s="1">
@@ -2533,7 +2541,7 @@
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="2">
+      <c r="A93" s="3">
         <v>45827</v>
       </c>
       <c r="B93" s="1">
@@ -2554,7 +2562,7 @@
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="2">
+      <c r="A94" s="3">
         <v>45827</v>
       </c>
       <c r="B94" s="1">
@@ -2575,7 +2583,7 @@
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="2">
+      <c r="A95" s="3">
         <v>45827</v>
       </c>
       <c r="B95" s="1">
@@ -2596,7 +2604,7 @@
       <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="2">
+      <c r="A96" s="3">
         <v>45827</v>
       </c>
       <c r="B96" s="1">
@@ -2617,7 +2625,7 @@
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="2">
+      <c r="A97" s="3">
         <v>45827</v>
       </c>
       <c r="B97" s="1">
@@ -2638,7 +2646,7 @@
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="2">
+      <c r="A98" s="3">
         <v>45827</v>
       </c>
       <c r="B98" s="1">
@@ -2659,7 +2667,7 @@
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="2">
+      <c r="A99" s="3">
         <v>45827</v>
       </c>
       <c r="B99" s="1">
@@ -2680,7 +2688,7 @@
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="2">
+      <c r="A100" s="3">
         <v>45827</v>
       </c>
       <c r="B100" s="1">
@@ -2701,7 +2709,7 @@
       <c r="G100" s="1"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="2">
+      <c r="A101" s="3">
         <v>45827</v>
       </c>
       <c r="B101" s="1">
@@ -2722,7 +2730,7 @@
       <c r="G101" s="1"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="2">
+      <c r="A102" s="3">
         <v>45838</v>
       </c>
       <c r="B102" s="1">
@@ -2743,7 +2751,7 @@
       <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="2">
+      <c r="A103" s="3">
         <v>45838</v>
       </c>
       <c r="B103" s="1">
@@ -2764,7 +2772,7 @@
       <c r="G103" s="1"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="2">
+      <c r="A104" s="3">
         <v>45838</v>
       </c>
       <c r="B104" s="1">
@@ -2785,7 +2793,7 @@
       <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="2">
+      <c r="A105" s="3">
         <v>45838</v>
       </c>
       <c r="B105" s="1">
@@ -2806,7 +2814,7 @@
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="2">
+      <c r="A106" s="3">
         <v>45838</v>
       </c>
       <c r="B106" s="1">
@@ -2827,7 +2835,7 @@
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="2">
+      <c r="A107" s="3">
         <v>45838</v>
       </c>
       <c r="B107" s="1">
@@ -2848,7 +2856,7 @@
       <c r="G107" s="1"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" s="2">
+      <c r="A108" s="3">
         <v>45838</v>
       </c>
       <c r="B108" s="1">
@@ -2869,7 +2877,7 @@
       <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="2">
+      <c r="A109" s="3">
         <v>45838</v>
       </c>
       <c r="B109" s="1">
@@ -2890,7 +2898,7 @@
       <c r="G109" s="1"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="2">
+      <c r="A110" s="3">
         <v>45838</v>
       </c>
       <c r="B110" s="1">
@@ -2911,7 +2919,7 @@
       <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" s="2">
+      <c r="A111" s="3">
         <v>45838</v>
       </c>
       <c r="B111" s="1">
@@ -2932,7 +2940,7 @@
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" s="2">
+      <c r="A112" s="3">
         <v>45838</v>
       </c>
       <c r="B112" s="1">
@@ -2953,7 +2961,7 @@
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" s="2">
+      <c r="A113" s="3">
         <v>45838</v>
       </c>
       <c r="B113" s="1">
@@ -2974,7 +2982,7 @@
       <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" s="2">
+      <c r="A114" s="3">
         <v>45838</v>
       </c>
       <c r="B114" s="1">
@@ -2995,7 +3003,7 @@
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="2">
+      <c r="A115" s="3">
         <v>45838</v>
       </c>
       <c r="B115" s="1">
@@ -3016,7 +3024,7 @@
       <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="2">
+      <c r="A116" s="3">
         <v>45838</v>
       </c>
       <c r="B116" s="1">
@@ -3037,7 +3045,7 @@
       <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" s="2">
+      <c r="A117" s="3">
         <v>45838</v>
       </c>
       <c r="B117" s="1">
@@ -3058,7 +3066,7 @@
       <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" s="2">
+      <c r="A118" s="3">
         <v>45838</v>
       </c>
       <c r="B118" s="1">
@@ -3079,7 +3087,7 @@
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" s="2">
+      <c r="A119" s="3">
         <v>45838</v>
       </c>
       <c r="B119" s="1">
@@ -3100,7 +3108,7 @@
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" s="2">
+      <c r="A120" s="3">
         <v>45838</v>
       </c>
       <c r="B120" s="1">
@@ -3121,7 +3129,7 @@
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" s="2">
+      <c r="A121" s="3">
         <v>45838</v>
       </c>
       <c r="B121" s="1">
@@ -3142,7 +3150,7 @@
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" s="2">
+      <c r="A122" s="3">
         <v>45838</v>
       </c>
       <c r="B122" s="1">
@@ -3163,7 +3171,7 @@
       <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A123" s="2">
+      <c r="A123" s="3">
         <v>45838</v>
       </c>
       <c r="B123" s="1">
@@ -3184,7 +3192,7 @@
       <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A124" s="2">
+      <c r="A124" s="3">
         <v>45838</v>
       </c>
       <c r="B124" s="1">
@@ -3205,7 +3213,7 @@
       <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A125" s="2">
+      <c r="A125" s="3">
         <v>45838</v>
       </c>
       <c r="B125" s="1">
@@ -3226,7 +3234,7 @@
       <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" s="2">
+      <c r="A126" s="3">
         <v>45838</v>
       </c>
       <c r="B126" s="1">
@@ -3247,7 +3255,7 @@
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A127" s="2">
+      <c r="A127" s="3">
         <v>45838</v>
       </c>
       <c r="B127" s="1">
@@ -3268,7 +3276,7 @@
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128" s="2">
+      <c r="A128" s="3">
         <v>45838</v>
       </c>
       <c r="B128" s="1">
@@ -3289,7 +3297,7 @@
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A129" s="2">
+      <c r="A129" s="3">
         <v>45838</v>
       </c>
       <c r="B129" s="1">
@@ -3310,7 +3318,7 @@
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" s="2">
+      <c r="A130" s="3">
         <v>45838</v>
       </c>
       <c r="B130" s="1">
@@ -3331,7 +3339,7 @@
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A131" s="2">
+      <c r="A131" s="3">
         <v>45838</v>
       </c>
       <c r="B131" s="1">
@@ -3352,7 +3360,7 @@
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A132" s="2">
+      <c r="A132" s="3">
         <v>45838</v>
       </c>
       <c r="B132" s="1">
@@ -3373,7 +3381,7 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A133" s="2">
+      <c r="A133" s="3">
         <v>45838</v>
       </c>
       <c r="B133" s="1">
@@ -3394,7 +3402,7 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A134" s="2">
+      <c r="A134" s="3">
         <v>45838</v>
       </c>
       <c r="B134" s="1">
@@ -3415,7 +3423,7 @@
       <c r="G134" s="1"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A135" s="2">
+      <c r="A135" s="3">
         <v>45838</v>
       </c>
       <c r="B135" s="1">
@@ -3436,7 +3444,7 @@
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A136" s="2">
+      <c r="A136" s="3">
         <v>45838</v>
       </c>
       <c r="B136" s="1">
@@ -3457,7 +3465,7 @@
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A137" s="2">
+      <c r="A137" s="3">
         <v>45838</v>
       </c>
       <c r="B137" s="1">
@@ -3478,7 +3486,7 @@
       <c r="G137" s="1"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A138" s="2">
+      <c r="A138" s="3">
         <v>45838</v>
       </c>
       <c r="B138" s="1">
@@ -3499,7 +3507,7 @@
       <c r="G138" s="1"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A139" s="2">
+      <c r="A139" s="3">
         <v>45838</v>
       </c>
       <c r="B139" s="1">
@@ -3520,7 +3528,7 @@
       <c r="G139" s="1"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A140" s="2">
+      <c r="A140" s="3">
         <v>45838</v>
       </c>
       <c r="B140" s="1">
@@ -3541,7 +3549,7 @@
       <c r="G140" s="1"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A141" s="2">
+      <c r="A141" s="3">
         <v>45838</v>
       </c>
       <c r="B141" s="1">
@@ -3562,7 +3570,7 @@
       <c r="G141" s="1"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A142" s="2">
+      <c r="A142" s="3">
         <v>45838</v>
       </c>
       <c r="B142" s="1">
@@ -3583,7 +3591,7 @@
       <c r="G142" s="1"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A143" s="2">
+      <c r="A143" s="3">
         <v>45838</v>
       </c>
       <c r="B143" s="1">
@@ -3604,7 +3612,7 @@
       <c r="G143" s="1"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A144" s="2">
+      <c r="A144" s="3">
         <v>45838</v>
       </c>
       <c r="B144" s="1">
@@ -3625,7 +3633,7 @@
       <c r="G144" s="1"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A145" s="2">
+      <c r="A145" s="3">
         <v>45838</v>
       </c>
       <c r="B145" s="1">
@@ -3646,7 +3654,7 @@
       <c r="G145" s="1"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A146" s="2">
+      <c r="A146" s="3">
         <v>45838</v>
       </c>
       <c r="B146" s="1">
@@ -3667,7 +3675,7 @@
       <c r="G146" s="1"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A147" s="2">
+      <c r="A147" s="3">
         <v>45838</v>
       </c>
       <c r="B147" s="1">
@@ -3688,7 +3696,7 @@
       <c r="G147" s="1"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A148" s="2">
+      <c r="A148" s="3">
         <v>45838</v>
       </c>
       <c r="B148" s="1">
@@ -3709,7 +3717,7 @@
       <c r="G148" s="1"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A149" s="2">
+      <c r="A149" s="3">
         <v>45838</v>
       </c>
       <c r="B149" s="1">
@@ -3730,7 +3738,7 @@
       <c r="G149" s="1"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A150" s="2">
+      <c r="A150" s="3">
         <v>45838</v>
       </c>
       <c r="B150" s="1">
@@ -3751,7 +3759,7 @@
       <c r="G150" s="1"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A151" s="2">
+      <c r="A151" s="3">
         <v>45838</v>
       </c>
       <c r="B151" s="1">
@@ -3772,7 +3780,7 @@
       <c r="G151" s="1"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A152" s="2">
+      <c r="A152" s="3">
         <v>45838</v>
       </c>
       <c r="B152" s="1">
@@ -3793,7 +3801,7 @@
       <c r="G152" s="1"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A153" s="2">
+      <c r="A153" s="3">
         <v>45838</v>
       </c>
       <c r="B153" s="1">
@@ -3814,7 +3822,7 @@
       <c r="G153" s="1"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A154" s="2">
+      <c r="A154" s="3">
         <v>45838</v>
       </c>
       <c r="B154" s="1">
@@ -3835,7 +3843,7 @@
       <c r="G154" s="1"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A155" s="2">
+      <c r="A155" s="3">
         <v>45838</v>
       </c>
       <c r="B155" s="1">
@@ -3856,7 +3864,7 @@
       <c r="G155" s="1"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A156" s="2">
+      <c r="A156" s="3">
         <v>45838</v>
       </c>
       <c r="B156" s="1">
@@ -3877,7 +3885,7 @@
       <c r="G156" s="1"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A157" s="2">
+      <c r="A157" s="3">
         <v>45838</v>
       </c>
       <c r="B157" s="1">
@@ -3898,7 +3906,7 @@
       <c r="G157" s="1"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A158" s="2">
+      <c r="A158" s="3">
         <v>45838</v>
       </c>
       <c r="B158" s="1">
@@ -3919,7 +3927,7 @@
       <c r="G158" s="1"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A159" s="2">
+      <c r="A159" s="3">
         <v>45838</v>
       </c>
       <c r="B159" s="1">
@@ -3940,7 +3948,7 @@
       <c r="G159" s="1"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A160" s="2">
+      <c r="A160" s="3">
         <v>45838</v>
       </c>
       <c r="B160" s="1">
@@ -3961,7 +3969,7 @@
       <c r="G160" s="1"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A161" s="2">
+      <c r="A161" s="3">
         <v>45838</v>
       </c>
       <c r="B161" s="1">
@@ -3982,7 +3990,7 @@
       <c r="G161" s="1"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A162" s="2">
+      <c r="A162" s="3">
         <v>45838</v>
       </c>
       <c r="B162" s="1">
@@ -4003,7 +4011,7 @@
       <c r="G162" s="1"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A163" s="2">
+      <c r="A163" s="3">
         <v>45838</v>
       </c>
       <c r="B163" s="1">
@@ -4024,7 +4032,7 @@
       <c r="G163" s="1"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A164" s="2">
+      <c r="A164" s="3">
         <v>45838</v>
       </c>
       <c r="B164" s="1">
@@ -4045,7 +4053,7 @@
       <c r="G164" s="1"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A165" s="2">
+      <c r="A165" s="3">
         <v>45838</v>
       </c>
       <c r="B165" s="1">
@@ -4066,7 +4074,7 @@
       <c r="G165" s="1"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A166" s="2">
+      <c r="A166" s="3">
         <v>45838</v>
       </c>
       <c r="B166" s="1">
@@ -4087,7 +4095,7 @@
       <c r="G166" s="1"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A167" s="2">
+      <c r="A167" s="3">
         <v>45838</v>
       </c>
       <c r="B167" s="1">
@@ -4108,7 +4116,7 @@
       <c r="G167" s="1"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A168" s="2">
+      <c r="A168" s="3">
         <v>45838</v>
       </c>
       <c r="B168" s="1">
@@ -4129,7 +4137,7 @@
       <c r="G168" s="1"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A169" s="2">
+      <c r="A169" s="3">
         <v>45838</v>
       </c>
       <c r="B169" s="1">
@@ -4150,7 +4158,7 @@
       <c r="G169" s="1"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A170" s="2">
+      <c r="A170" s="3">
         <v>45838</v>
       </c>
       <c r="B170" s="1">
@@ -4171,7 +4179,7 @@
       <c r="G170" s="1"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A171" s="2">
+      <c r="A171" s="3">
         <v>45838</v>
       </c>
       <c r="B171" s="1">
@@ -4192,7 +4200,7 @@
       <c r="G171" s="1"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A172" s="2">
+      <c r="A172" s="3">
         <v>45838</v>
       </c>
       <c r="B172" s="1">
@@ -4213,7 +4221,7 @@
       <c r="G172" s="1"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A173" s="2">
+      <c r="A173" s="3">
         <v>45838</v>
       </c>
       <c r="B173" s="1">
@@ -4234,7 +4242,7 @@
       <c r="G173" s="1"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A174" s="2">
+      <c r="A174" s="3">
         <v>45838</v>
       </c>
       <c r="B174" s="1">
@@ -4255,7 +4263,7 @@
       <c r="G174" s="1"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A175" s="2">
+      <c r="A175" s="3">
         <v>45838</v>
       </c>
       <c r="B175" s="1">
@@ -4276,7 +4284,7 @@
       <c r="G175" s="1"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A176" s="2">
+      <c r="A176" s="3">
         <v>45838</v>
       </c>
       <c r="B176" s="1">
@@ -4297,7 +4305,7 @@
       <c r="G176" s="1"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A177" s="2">
+      <c r="A177" s="3">
         <v>45838</v>
       </c>
       <c r="B177" s="1">
@@ -4318,7 +4326,7 @@
       <c r="G177" s="1"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A178" s="2">
+      <c r="A178" s="3">
         <v>45838</v>
       </c>
       <c r="B178" s="1">
@@ -4339,7 +4347,7 @@
       <c r="G178" s="1"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A179" s="2">
+      <c r="A179" s="3">
         <v>45838</v>
       </c>
       <c r="B179" s="1">
@@ -4360,7 +4368,7 @@
       <c r="G179" s="1"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A180" s="2">
+      <c r="A180" s="3">
         <v>45838</v>
       </c>
       <c r="B180" s="1">
@@ -4381,7 +4389,7 @@
       <c r="G180" s="1"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A181" s="2">
+      <c r="A181" s="3">
         <v>45838</v>
       </c>
       <c r="B181" s="1">
@@ -4402,7 +4410,7 @@
       <c r="G181" s="1"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A182" s="2">
+      <c r="A182" s="3">
         <v>45838</v>
       </c>
       <c r="B182" s="1">
@@ -4423,7 +4431,7 @@
       <c r="G182" s="1"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A183" s="2">
+      <c r="A183" s="3">
         <v>45838</v>
       </c>
       <c r="B183" s="1">
@@ -4444,7 +4452,7 @@
       <c r="G183" s="1"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A184" s="2">
+      <c r="A184" s="3">
         <v>45838</v>
       </c>
       <c r="B184" s="1">
@@ -4465,7 +4473,7 @@
       <c r="G184" s="1"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A185" s="2">
+      <c r="A185" s="3">
         <v>45838</v>
       </c>
       <c r="B185" s="1">
@@ -4486,7 +4494,7 @@
       <c r="G185" s="1"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A186" s="2">
+      <c r="A186" s="3">
         <v>45838</v>
       </c>
       <c r="B186" s="1">
@@ -4507,7 +4515,7 @@
       <c r="G186" s="1"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A187" s="2">
+      <c r="A187" s="3">
         <v>45838</v>
       </c>
       <c r="B187" s="1">
@@ -4528,7 +4536,7 @@
       <c r="G187" s="1"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A188" s="2">
+      <c r="A188" s="3">
         <v>45838</v>
       </c>
       <c r="B188" s="1">
@@ -4549,7 +4557,7 @@
       <c r="G188" s="1"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A189" s="2">
+      <c r="A189" s="3">
         <v>45838</v>
       </c>
       <c r="B189" s="1">
@@ -4570,7 +4578,7 @@
       <c r="G189" s="1"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A190" s="2">
+      <c r="A190" s="3">
         <v>45838</v>
       </c>
       <c r="B190" s="1">
@@ -4591,7 +4599,7 @@
       <c r="G190" s="1"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A191" s="2">
+      <c r="A191" s="3">
         <v>45838</v>
       </c>
       <c r="B191" s="1">
@@ -4612,7 +4620,7 @@
       <c r="G191" s="1"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A192" s="2">
+      <c r="A192" s="3">
         <v>45838</v>
       </c>
       <c r="B192" s="1">
@@ -4633,7 +4641,7 @@
       <c r="G192" s="1"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A193" s="2">
+      <c r="A193" s="3">
         <v>45838</v>
       </c>
       <c r="B193" s="1">
@@ -4654,7 +4662,7 @@
       <c r="G193" s="1"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A194" s="2">
+      <c r="A194" s="3">
         <v>45838</v>
       </c>
       <c r="B194" s="1">
@@ -4675,7 +4683,7 @@
       <c r="G194" s="1"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A195" s="2">
+      <c r="A195" s="3">
         <v>45838</v>
       </c>
       <c r="B195" s="1">
@@ -4696,7 +4704,7 @@
       <c r="G195" s="1"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A196" s="2">
+      <c r="A196" s="3">
         <v>45838</v>
       </c>
       <c r="B196" s="1">
@@ -4717,7 +4725,7 @@
       <c r="G196" s="1"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A197" s="2">
+      <c r="A197" s="3">
         <v>45838</v>
       </c>
       <c r="B197" s="1">
@@ -4738,7 +4746,7 @@
       <c r="G197" s="1"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A198" s="2">
+      <c r="A198" s="3">
         <v>45838</v>
       </c>
       <c r="B198" s="1">
@@ -4759,7 +4767,7 @@
       <c r="G198" s="1"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A199" s="2">
+      <c r="A199" s="3">
         <v>45838</v>
       </c>
       <c r="B199" s="1">
@@ -4780,7 +4788,7 @@
       <c r="G199" s="1"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A200" s="2">
+      <c r="A200" s="3">
         <v>45838</v>
       </c>
       <c r="B200" s="1">
@@ -4801,7 +4809,7 @@
       <c r="G200" s="1"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A201" s="2">
+      <c r="A201" s="3">
         <v>45838</v>
       </c>
       <c r="B201" s="1">
@@ -4823,8 +4831,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>